--- a/files/模版_filled.xlsx
+++ b/files/模版_filled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF124"/>
+  <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>交易对方账号</t>
+          <t>交易对方账号开户行</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -598,21 +598,43 @@
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>125.17</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025/03/31 09:38:25</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>20250331093813993000011004032184</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -632,21 +654,43 @@
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0.65</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025/03/21 00:25:41</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>20250321002541102219903291996931</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -666,21 +710,43 @@
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.7</v>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024/12/20 23:48:23</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20241220234823102219901353482086</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -700,27 +766,57 @@
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024/12/01 12:00:32</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20241201120031996000121011761787</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>银联快捷</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>（特约）佰付美</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>865650048140005</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -734,27 +830,57 @@
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>-10000</v>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024/10/12 11:56:56</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>20241012115656991001440069381717</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-微信零钱充值账户</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>1000054101</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -768,21 +894,43 @@
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>10000</v>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024/10/12 11:20:25</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>20241012112025996000200300501228</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -802,27 +950,57 @@
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>-0.01</v>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024/10/08 10:52:04</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>20241008105204991001440072868498</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-财付通</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>1000000000</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -836,21 +1014,43 @@
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024/10/08 10:51:03</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>20241008105102996000213400256278</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -870,27 +1070,57 @@
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024/10/01 12:00:28</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20241001120028996000121015656173</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>银联快捷</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>（特约）佰付美</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>865650048140005</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -904,21 +1134,43 @@
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1.13</v>
+      </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024/09/20 22:49:43</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>20240920224943102219901341093823</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -938,21 +1190,43 @@
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1.51</v>
+      </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024/06/20 22:47:22</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>20240620224722102219901357504038</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -972,21 +1246,43 @@
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>76.31999999999999</v>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024/04/09 09:47:35</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>20240409094719993000011242508856</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1006,27 +1302,57 @@
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024/04/01 12:19:34</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>20240401121934996000121005624866</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>银联快捷</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>（特约）佰付美</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>865650048140005</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -1040,21 +1366,43 @@
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1.47</v>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024/03/20 22:46:57</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20240320224656102219901358166768</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1074,27 +1422,57 @@
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>-371</v>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024/01/11 09:19:24</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20240111091924991001440066606920</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-广州唯品会电子商务有限公司</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>1217180501</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
@@ -1108,27 +1486,57 @@
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>-150</v>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024/01/02 16:45:51</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>20240102164551991001420041824540</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-微信红包</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>1000039901</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1142,27 +1550,57 @@
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>-52</v>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024/01/02 10:40:40</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>20240102104040996000129126530744</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-微信红包</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -1176,21 +1614,43 @@
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>2000</v>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024/01/01 11:23:35</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>20240101112334996000201400253981</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1210,27 +1670,57 @@
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>-36</v>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023/12/26 13:53:23</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20231226135323991001420107119491</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-微信红包</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>1000039901</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -1244,21 +1734,43 @@
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.64</v>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023/12/20 22:44:39</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20231220224439102219901359103023</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1278,27 +1790,57 @@
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>-52</v>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023/11/29 11:11:59</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20231129111159991001440067560667</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-广州唯品会电子商务有限公司</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1217180501</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1312,27 +1854,57 @@
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>-200</v>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023/11/27 16:13:40</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20231127161340991001440066391609</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-佳剪发美发店</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>491192227</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -1346,27 +1918,57 @@
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>-300</v>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023/11/03 10:57:42</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20231103105742996000149005058126</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-中国石油四川眉山销售分公司</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -1380,27 +1982,57 @@
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>-224</v>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023/11/01 20:01:04</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20231101200104996000149003614366</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-广州唯品会电子商务有限公司</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -1414,21 +2046,43 @@
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>2000</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023/10/30 20:48:30</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20231030204830996000202900546357</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -1448,27 +2102,57 @@
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>-97</v>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023/10/07 13:41:49</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20231007134149991001410002994952</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-广州唯品会电子商务有</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>1217180501</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -1482,27 +2166,57 @@
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>-209</v>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023/10/02 20:41:56</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20231002204156996000129073129132</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-唯品会</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -1516,27 +2230,57 @@
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>-195</v>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023/09/26 16:08:21</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20230926160821991001440074342393</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-广州唯品会电子商务有</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>1217180501</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -1550,27 +2294,57 @@
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>-500</v>
+      </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023/09/23 16:17:05</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20230923161705996000129081576728</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -1584,21 +2358,43 @@
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1000</v>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023/09/23 10:19:53</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20230923101953996000201200553198</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -1618,21 +2414,43 @@
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0.45</v>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023/09/20 22:48:07</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20230920224807102219901357256048</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -1652,27 +2470,57 @@
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>-1000</v>
+      </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023/09/16 10:07:50</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20230916100750991001440080370170</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-微信零钱充值账户</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>1000054101</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -1686,27 +2534,57 @@
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>16</v>
+      </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023/09/16 10:03:48</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20230916100348991001410007351626</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>退货</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-广州唯品会电子商务有</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Z2004944000010</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -1720,27 +2598,57 @@
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>-86</v>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023/09/15 19:15:52</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20230915191552991001420106142283</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-广州唯品会电子商务有</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>1217180501</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -1754,21 +2662,43 @@
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1000</v>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023/09/15 12:32:38</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20230915123238996000215800121802</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -1788,27 +2718,57 @@
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>-423</v>
+      </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023/09/13 11:04:06</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>20230913110406991001440078338566</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-青神县人民医院</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>1602529578</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -1822,27 +2782,57 @@
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>-403.1</v>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023/09/13 10:19:16</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>20230913101916991001440077083246</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-青神县人民医院</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>1602529578</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -1856,21 +2846,43 @@
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023/09/10 16:30:42</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20230910163042996000216400396515</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -1890,27 +2902,57 @@
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>-1000</v>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023/08/06 11:12:42</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20230806111242996000149009611411</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>快捷支付</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司-微信零钱充值账户</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -1924,21 +2966,43 @@
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>0.67</v>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023/06/20 23:06:53</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20230620230653102219901361620511</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -1958,21 +3022,43 @@
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>3.47</v>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023/04/03 17:01:30</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>219930000376461cb</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>他行汇入</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -1992,21 +3078,43 @@
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>0.87</v>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023/03/20 22:57:44</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>68266401362704500</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -2026,27 +3134,57 @@
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023/02/01 12:05:06</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>229960001c7883c39</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>银联快捷</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -2060,21 +3198,43 @@
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>0.95</v>
+      </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2022/12/20 22:53:56</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>68243601347695514</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -2094,27 +3254,57 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2022/10/01 12:34:02</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>229960001ce2e7ac7</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
@@ -2128,21 +3318,43 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>1.1</v>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2022/09/21 00:59:07</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA52222430</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -2162,27 +3374,57 @@
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2022/08/01 13:14:07</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>229960001c17551a1</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
@@ -2196,27 +3438,57 @@
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>-15</v>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2022/06/25 11:25:43</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>309910014a2td7j44</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>财付通-电影公司像馆</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>1500947831</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
@@ -2230,21 +3502,43 @@
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>2.6</v>
+      </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2022/06/21 02:22:42</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA76400230</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -2264,27 +3558,57 @@
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>-99</v>
+      </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2022/06/20 10:02:17</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>309910014a2po1241</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>财付通-微信红包</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>1000039801</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
@@ -2298,27 +3622,57 @@
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>-40</v>
+      </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2022/06/18 21:46:52</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>309910014a2sxi530</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>财付通-微信红包</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>1000039801</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
@@ -2332,27 +3686,57 @@
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>-300</v>
+      </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2022/06/18 09:31:13</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>229960001b2m2m020</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>微信转账</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
@@ -2366,27 +3750,57 @@
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>-73</v>
+      </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2022/06/16 20:42:23</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>309910014a2rf5787</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>财付通-唯品会</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>1500947861</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
@@ -2400,27 +3814,57 @@
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>-22</v>
+      </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2022/06/13 21:30:12</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>229960001b2lebg34</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>财付通-唯品会</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
@@ -2434,27 +3878,57 @@
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>-15</v>
+      </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2022/06/12 12:59:43</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>309910014a2sfzs45</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>财付通-青神县启华烟花</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>1500947831</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -2468,27 +3942,57 @@
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>-32</v>
+      </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2022/06/09 09:10:53</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>309910014a2q0dc85</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>财付通-微信红包</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>1000039801</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
@@ -2502,27 +4006,57 @@
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>-31.89</v>
+      </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2022/06/04 11:32:40</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>309910014a2qsmc15</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>财付通-拼多多平台商户</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>1319713401</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -2536,27 +4070,57 @@
     <row r="59">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2022/06/02 12:30:31</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>229960001c276e08e</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
@@ -2570,27 +4134,57 @@
     <row r="60">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2022/06/01 15:24:02</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>229960001c48af5c6</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
@@ -2604,27 +4198,57 @@
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>-19</v>
+      </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2022/05/26 06:59:38</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>309910014a2spcc88</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>财付通-唯品会</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>1501522001</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -2638,27 +4262,57 @@
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>-114</v>
+      </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2022/05/23 12:40:36</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>309910014a2qve937</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>财付通-微信红包</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>1000039901</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -2672,27 +4326,57 @@
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>-22</v>
+      </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2022/05/19 13:06:12</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>309910014a2sb1u59</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>财付通-青神丝丝馒头</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>1504292651</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
@@ -2706,27 +4390,57 @@
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>-15</v>
+      </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2022/05/16 14:16:43</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>309910014a2qajq47</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>财付通-香百丽</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>1500947831</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
@@ -2740,27 +4454,57 @@
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>-2.9</v>
+      </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2022/05/12 21:25:14</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>309910014a2s42u57</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>财付通-四川宏远上铖超市有限</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>1501521921</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
@@ -2774,27 +4518,57 @@
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>-510</v>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2022/05/12 20:25:22</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>309910014a2s2x733</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>财付通-陈记驴肉</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>1500947831</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
@@ -2808,27 +4582,57 @@
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>-22</v>
+      </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2022/05/11 14:38:46</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>229960001b2kokm96</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>财付通-微信红包</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
@@ -2842,27 +4646,57 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>-4</v>
+      </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2022/05/07 18:12:45</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>309910014a2srbr99</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>财付通-月咡塘超市</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>1500947831</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
@@ -2876,27 +4710,57 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>-3</v>
+      </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2022/05/04 19:41:02</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>229960001b2jpca46</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>财付通-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -2910,27 +4774,57 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>-15</v>
+      </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2022/05/02 13:17:37</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>309910014a2tihl41</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>财付通-香百丽三店</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>1500947831</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
@@ -2944,27 +4838,57 @@
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>-105</v>
+      </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2022/04/30 20:11:53</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>309910014a2seed28</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>财付通-广州唯品会电子商务有</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>1217180501</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
@@ -2978,27 +4902,57 @@
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>-26</v>
+      </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2022/04/30 18:03:13</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>309910014a2sbeq16</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>财付通-王义宾甜皮鸭一王春红</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>1504292651</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -3012,27 +4966,57 @@
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>-194</v>
+      </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2022/04/24 15:29:35</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>309910014a2skz524</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>财付通-广州唯品会电子商务有</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>1217180501</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -3046,27 +5030,57 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>-45.22</v>
+      </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2022/04/24 10:55:34</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>309910014a2sffl46</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>财付通-美团平台商户</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>1515540081</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
@@ -3080,27 +5094,57 @@
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>-300</v>
+      </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2022/04/22 22:42:01</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>309910014a2rk1t12</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>微信转账</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>1000050001</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
@@ -3114,27 +5158,57 @@
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>-29.99</v>
+      </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2022/04/15 13:02:28</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>309910014a2qyvg56</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>财付通-拼多多平台商户</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>1274938601</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
@@ -3148,27 +5222,57 @@
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>199.99</v>
+      </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2022/04/02 09:46:01</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>229960001c103bf56</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>银联退货</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
@@ -3182,27 +5286,57 @@
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>-199.99</v>
+      </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2022/04/01 12:32:54</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>229960001c637b946</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
@@ -3216,27 +5350,57 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>-500</v>
+      </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2022/03/26 19:48:46</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>229960001b2mvgw70</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>微信转账</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
@@ -3250,21 +5414,43 @@
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>74.36</v>
+      </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2022/03/23 15:50:16</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>21993000033041035</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>他行来账</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -3284,21 +5470,43 @@
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>11.19</v>
+      </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2022/03/21 01:44:10</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA72095969</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -3318,27 +5526,57 @@
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>-408</v>
+      </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2022/03/10 17:35:12</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>309910014a2thj879</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>财付通-中国石油四川眉山销售</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>1548492621</t>
+        </is>
+      </c>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
@@ -3352,27 +5590,57 @@
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>-1</v>
+      </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2022/03/09 21:50:19</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>229960001b2ki9s36</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>微信红包</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>财付通-微信红包</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>842584073990001</t>
+        </is>
+      </c>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
@@ -3386,21 +5654,43 @@
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>-5000</v>
+      </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2022/02/11 09:55:54</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>17997011347943432</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>取款</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -3420,21 +5710,43 @@
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>-5000</v>
+      </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2022/02/11 09:54:58</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>17997011347786797</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>取款</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -3454,21 +5766,43 @@
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>-5000</v>
+      </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2022/02/11 09:53:45</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>17997011347748767</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>取款</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -3488,21 +5822,43 @@
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>-5000</v>
+      </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2022/02/11 09:52:32</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>17997011347697669</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>取款</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -3522,21 +5878,43 @@
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>1728</v>
+      </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2022/01/27 11:20:18</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>43992000004503072</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>代理地方</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -3556,21 +5934,43 @@
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>2201</v>
+      </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2022/01/27 11:18:36</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>43992000004474615</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>代理地方</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -3590,21 +5990,43 @@
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>15.82</v>
+      </c>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2021/12/21 02:08:38</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA41777430</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -3624,27 +6046,57 @@
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2021/12/01 12:30:35</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>229960001c1bf8e03</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -3658,27 +6110,57 @@
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>-1</v>
+      </c>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2021/11/29 16:41:57</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>229960001c219f364</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>小额消费</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>青神县靓典汽车服务中心</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>898513875380128</t>
+        </is>
+      </c>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
@@ -3692,27 +6174,57 @@
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>-1</v>
+      </c>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2021/11/24 14:44:53</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>229960001c339559f</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>小额消费</t>
+        </is>
+      </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>青神县靓典汽车服务中心</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>898513875380128</t>
+        </is>
+      </c>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
@@ -3726,21 +6238,43 @@
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>578</v>
+      </c>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2021/10/15 16:25:45</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>30997106500721781</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>工资</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
@@ -3760,27 +6294,57 @@
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>-1</v>
+      </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2021/10/03 11:13:41</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>229960001c554d722</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>小额消费</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>青神县靓典汽车服务中心</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>898513875380128</t>
+        </is>
+      </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
@@ -3794,27 +6358,57 @@
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>-169.99</v>
+      </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2021/10/01 12:31:55</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>229960001c57e85e5</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
@@ -3828,21 +6422,43 @@
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>20455</v>
+      </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2021/09/22 16:16:59</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>30997106525452122</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>工资</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -3862,21 +6478,43 @@
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>0.31</v>
+      </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2021/09/21 01:19:28</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA46434930</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -3896,21 +6534,43 @@
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>0.27</v>
+      </c>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2021/06/21 02:07:36</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA55077830</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -3930,27 +6590,57 @@
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>-170</v>
+      </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2021/06/01 10:15:56</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>229960001c37eec95</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
@@ -3964,21 +6654,43 @@
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>250.61</v>
+      </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2021/05/26 15:47:47</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>21993000059411400</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>他行来账</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -3998,27 +6710,57 @@
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>-170</v>
+      </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2021/04/01 10:13:36</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>取</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>229960001c44b0c1d</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>（特约）佰付美（去加油）</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>852665155410001</t>
+        </is>
+      </c>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
@@ -4032,21 +6774,43 @@
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>200</v>
+      </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2021/04/01 09:07:56</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>20996000274716382</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>他行来账</t>
+        </is>
+      </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
@@ -4066,21 +6830,43 @@
     <row r="104">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2021/03/21 02:50:25</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA56342069</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -4100,21 +6886,43 @@
     <row r="105">
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2020/12/21 01:56:45</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA35495769</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
@@ -4134,21 +6942,43 @@
     <row r="106">
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2020/09/21 01:37:21</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA42870730</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
@@ -4168,21 +6998,43 @@
     <row r="107">
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2020/06/21 03:25:48</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA04130767</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -4202,21 +7054,43 @@
     <row r="108">
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2020/03/21 02:22:54</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA53703869</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
@@ -4236,21 +7110,43 @@
     <row r="109">
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2019/12/21 02:45:34</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA89072967</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
@@ -4270,21 +7166,43 @@
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2019/09/21 02:05:09</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA67201669</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
@@ -4304,21 +7222,43 @@
     <row r="111">
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2019/06/21 02:28:15</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA14167068</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
@@ -4338,21 +7278,43 @@
     <row r="112">
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>0.17</v>
+      </c>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2019/03/21 02:31:35</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA55536567</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -4372,26 +7334,52 @@
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>90.90000000000001</v>
+      </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2019/02/20 22:17:26</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>309910014a2qf0q14</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>余额提现:-</t>
+        </is>
+      </c>
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr"/>
@@ -4406,21 +7394,43 @@
     <row r="114">
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>0.06</v>
+      </c>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2018/12/21 02:43:52</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA76442969</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -4440,26 +7450,52 @@
     <row r="115">
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>144.6</v>
+      </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2018/12/02 13:12:27</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>309910014a2pub563</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
@@ -4474,21 +7510,43 @@
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>0.03</v>
+      </c>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2018/09/21 02:25:22</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>9AAAAAAAA16761669</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
@@ -4508,27 +7566,57 @@
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>52.67</v>
+      </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2018/07/22 11:34:58</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>22996000126713362</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>代付入账</t>
+        </is>
+      </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>（特约）平安百付宝T1（资金结算）</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>410350248160072</t>
+        </is>
+      </c>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
@@ -4542,21 +7630,43 @@
     <row r="118">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2017/11/26 13:48:42</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>存</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>人民币元</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>05101829985002358</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>批量开卡</t>
+        </is>
+      </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
@@ -4573,210 +7683,6 @@
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr"/>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
-      <c r="AF119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
-      <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr"/>
-      <c r="AF120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
-      <c r="AC121" t="inlineStr"/>
-      <c r="AD121" t="inlineStr"/>
-      <c r="AE121" t="inlineStr"/>
-      <c r="AF121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
-      <c r="AC122" t="inlineStr"/>
-      <c r="AD122" t="inlineStr"/>
-      <c r="AE122" t="inlineStr"/>
-      <c r="AF122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
-      <c r="AC123" t="inlineStr"/>
-      <c r="AD123" t="inlineStr"/>
-      <c r="AE123" t="inlineStr"/>
-      <c r="AF123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr"/>
-      <c r="AC124" t="inlineStr"/>
-      <c r="AD124" t="inlineStr"/>
-      <c r="AE124" t="inlineStr"/>
-      <c r="AF124" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
